--- a/data/trans_bre/P22_R4-Dificultad-trans_bre.xlsx
+++ b/data/trans_bre/P22_R4-Dificultad-trans_bre.xlsx
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-1.449917283855515</v>
+        <v>-1.495764470070913</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-2.971136382105171</v>
+        <v>-3.064892751318022</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-0.9264550466470612</v>
+        <v>-0.969067213503979</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-0.7998480534422573</v>
+        <v>-0.928875721621273</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>-0.2985630236509684</v>
+        <v>-0.3053073324752325</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>-0.5049372832389249</v>
+        <v>-0.5400665933950589</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>-0.3514179338584763</v>
+        <v>-0.3540568691319769</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>-0.1776515765688099</v>
+        <v>-0.2090660007637619</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>2.861744879452672</v>
+        <v>2.849547143107003</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.8557247278963142</v>
+        <v>0.8109226015640418</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>1.62691431205676</v>
+        <v>1.574056837713763</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>3.859789022309448</v>
+        <v>3.916359875985386</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>1.197540287147809</v>
+        <v>1.152266880486496</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.2435654388174834</v>
+        <v>0.2226277261050363</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>1.074704018318401</v>
+        <v>1.029410358413215</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>1.757450850964646</v>
+        <v>1.851603117709316</v>
       </c>
     </row>
     <row r="7">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-1.419291885825173</v>
+        <v>-1.728666259587082</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-1.73894040710514</v>
+        <v>-1.462687307901629</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>-1.191450651612521</v>
+        <v>-1.243966630337203</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>-0.3124572704757128</v>
+        <v>-0.3253020864140468</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.1965948284018365</v>
+        <v>-0.2267754329903992</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.2366011032878341</v>
+        <v>-0.2038504765523953</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.1688885764534114</v>
+        <v>-0.1819531630755696</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.05364303021973935</v>
+        <v>-0.04922760097773499</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>2.96639743720687</v>
+        <v>2.42469965269638</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>2.954526512775984</v>
+        <v>2.987372102088282</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>3.43796190477315</v>
+        <v>3.485461343901823</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>3.979266208263196</v>
+        <v>4.014275027199722</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.5529245503695955</v>
+        <v>0.4430677873186785</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.5785122053697633</v>
+        <v>0.5690281527121668</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.7466231756285425</v>
+        <v>0.7226881604014185</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.9451008767179896</v>
+        <v>0.9713180770139577</v>
       </c>
     </row>
     <row r="10">
@@ -837,7 +837,7 @@
         <v>-2.496659947896803</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.6342758579482244</v>
+        <v>0.6342758579482272</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>-0.1519832505999732</v>
@@ -849,7 +849,7 @@
         <v>-0.1975667237218942</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>0.04726072136462881</v>
+        <v>0.04726072136462902</v>
       </c>
     </row>
     <row r="11">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-4.827307374120225</v>
+        <v>-4.797165084153606</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-6.231056556974376</v>
+        <v>-6.008229854061577</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-5.687054593582749</v>
+        <v>-5.901607425165454</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-2.442192725616084</v>
+        <v>-2.518736807331461</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>-0.3308495308775669</v>
+        <v>-0.335272563270178</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>-0.4256801857239693</v>
+        <v>-0.42822805133789</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>-0.4036826855904102</v>
+        <v>-0.4121193834565614</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>-0.1602687903964417</v>
+        <v>-0.1632844183840509</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>1.085029291805442</v>
+        <v>0.9523239704567918</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.3160239033019968</v>
+        <v>0.3980889835510602</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.721386410203772</v>
+        <v>0.8207197169879776</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>3.366699623493424</v>
+        <v>3.336485631296251</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.09751559899719914</v>
+        <v>0.08228745529940507</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.02927193752899196</v>
+        <v>0.04742506568817257</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.06639975879751743</v>
+        <v>0.07829273878026567</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>0.2893288074513709</v>
+        <v>0.2858957244086612</v>
       </c>
     </row>
     <row r="13">
@@ -937,7 +937,7 @@
         <v>-0.09595444311284451</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>-1.454824647846753</v>
+        <v>-1.454824647846742</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1078926404516388</v>
@@ -949,7 +949,7 @@
         <v>-0.005090697696227255</v>
       </c>
       <c r="J13" s="6" t="n">
-        <v>-0.0539084434393986</v>
+        <v>-0.0539084434393982</v>
       </c>
     </row>
     <row r="14">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-3.253869646463889</v>
+        <v>-3.543309367728325</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>-8.213558435280707</v>
+        <v>-7.840445945372698</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>-5.364508956143674</v>
+        <v>-5.123091082450679</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>-5.493712894509361</v>
+        <v>-5.446173047766896</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.1200415754852276</v>
+        <v>-0.1389515777783725</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.3803220597618996</v>
+        <v>-0.3718255707626932</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.2536323824659929</v>
+        <v>-0.2369723335438999</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.1903376533061457</v>
+        <v>-0.1836193692429253</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>9.430268433485754</v>
+        <v>9.232763693649618</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>2.556544045722271</v>
+        <v>3.066150526509944</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>5.282847640604779</v>
+        <v>5.224451682498136</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>2.485344300783192</v>
+        <v>2.679393517967721</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.4306274993686606</v>
+        <v>0.4147933481019453</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.166475891577789</v>
+        <v>0.1899392792264146</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.3273739692372488</v>
+        <v>0.3339851202245162</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.1001664992644998</v>
+        <v>0.1094677487924365</v>
       </c>
     </row>
     <row r="16">
@@ -1060,28 +1060,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-2.570083712998197</v>
+        <v>-2.632308147457153</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-2.899697108805042</v>
+        <v>-3.054654815372043</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-1.881847271554809</v>
+        <v>-1.944657354074014</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-1.897255485653909</v>
+        <v>-1.910790763669742</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>-0.2252276369158099</v>
+        <v>-0.2288849010512074</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>-0.2893273486638878</v>
+        <v>-0.2998375907784919</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>-0.2133998390345006</v>
+        <v>-0.2150283132156796</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>-0.1309463309251241</v>
+        <v>-0.1309173708425304</v>
       </c>
     </row>
     <row r="18">
@@ -1092,28 +1092,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.3442924042228495</v>
+        <v>0.4539824368843657</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>-0.004346203616512895</v>
+        <v>-0.2431315781378071</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.8154320709521873</v>
+        <v>0.6458885159034896</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>1.409679010510841</v>
+        <v>1.277821062738126</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.03579566242151132</v>
+        <v>0.04669461126454805</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.004510688965047929</v>
+        <v>-0.02168352149832797</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.1064043304964364</v>
+        <v>0.08148120324237022</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>0.1137790728889879</v>
+        <v>0.1034313065777485</v>
       </c>
     </row>
     <row r="19">
